--- a/xlsx/迈克尔·波特_intext.xlsx
+++ b/xlsx/迈克尔·波特_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>迈克尔·波特</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_管理_迈克尔·波特</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普林斯頓大學</t>
+    <t>普林斯顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6%E5%AE%B6</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9</t>
   </si>
   <si>
@@ -95,7 +92,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
   </si>
   <si>
-    <t>波士頓紅襪</t>
+    <t>波士顿红袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MBA</t>
@@ -119,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E9%8F%88</t>
   </si>
   <si>
-    <t>價值鏈</t>
+    <t>价值链</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8A%9B%E5%88%86%E6%9E%90</t>
@@ -149,9 +146,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
@@ -161,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>壟斷</t>
+    <t>垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -185,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -203,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -221,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -894,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
         <v>11</v>
@@ -920,10 +914,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -949,10 +943,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -978,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1007,10 +1001,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1036,10 +1030,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1065,10 +1059,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1094,10 +1088,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1123,10 +1117,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1152,10 +1146,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1181,10 +1175,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1210,10 +1204,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1239,10 +1233,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1268,10 +1262,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1297,10 +1291,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1326,10 +1320,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1355,10 +1349,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1384,10 +1378,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1413,10 +1407,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1442,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1471,10 +1465,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1500,10 +1494,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1529,10 +1523,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1558,10 +1552,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1587,10 +1581,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1616,10 +1610,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
